--- a/Raw_data/plant_traits.xlsx
+++ b/Raw_data/plant_traits.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Plant Community Recovery\long_term_plant_recovery\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7114F439-E4DE-4AEB-9EA2-88B811EA06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C35FA-8842-46C0-B435-17A4369085AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33864468-3118-4C12-8B27-6BCBE91F502F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="313">
   <si>
     <t>boecylin</t>
   </si>
@@ -814,6 +813,279 @@
   </si>
   <si>
     <t>groundcover (herbacious)</t>
+  </si>
+  <si>
+    <t>forb</t>
+  </si>
+  <si>
+    <t>Bryophyte sp.</t>
+  </si>
+  <si>
+    <t>ACHMILLE</t>
+  </si>
+  <si>
+    <t>BOECYLIN</t>
+  </si>
+  <si>
+    <t>BOLFLUVI</t>
+  </si>
+  <si>
+    <t>BRASCHE</t>
+  </si>
+  <si>
+    <t>CALCANAD</t>
+  </si>
+  <si>
+    <t>Calystegia sp.</t>
+  </si>
+  <si>
+    <t>CAMAPARI</t>
+  </si>
+  <si>
+    <t>CALSEPIU</t>
+  </si>
+  <si>
+    <t>CARAQUAT</t>
+  </si>
+  <si>
+    <t>CARBUXBA</t>
+  </si>
+  <si>
+    <t>CARCRAWE</t>
+  </si>
+  <si>
+    <t>CARCOMOS</t>
+  </si>
+  <si>
+    <t>CARCRYPT</t>
+  </si>
+  <si>
+    <t>CARLACUS</t>
+  </si>
+  <si>
+    <t>CARLANGU</t>
+  </si>
+  <si>
+    <t>CARLASIO</t>
+  </si>
+  <si>
+    <t>CARSARTW</t>
+  </si>
+  <si>
+    <t>Carex sp</t>
+  </si>
+  <si>
+    <t>CERDEME</t>
+  </si>
+  <si>
+    <t>CHARA SP</t>
+  </si>
+  <si>
+    <t>CLAMARIS</t>
+  </si>
+  <si>
+    <t>Cornus Sp.</t>
+  </si>
+  <si>
+    <t>DECVERTI</t>
+  </si>
+  <si>
+    <t>DULARUND</t>
+  </si>
+  <si>
+    <t>ELEPALUS</t>
+  </si>
+  <si>
+    <t>ELOCANA</t>
+  </si>
+  <si>
+    <t>Eleocharis Sp</t>
+  </si>
+  <si>
+    <t>EQUFLUVI</t>
+  </si>
+  <si>
+    <t>Epuatorium sp.</t>
+  </si>
+  <si>
+    <t>Fern</t>
+  </si>
+  <si>
+    <t>Fontinalis Sp</t>
+  </si>
+  <si>
+    <t>FRAVIRGI</t>
+  </si>
+  <si>
+    <t>GALLABRA</t>
+  </si>
+  <si>
+    <t>GALTRIF</t>
+  </si>
+  <si>
+    <t>HYDMORSU</t>
+  </si>
+  <si>
+    <t>HYPKALMI</t>
+  </si>
+  <si>
+    <t>IMPCAPEN</t>
+  </si>
+  <si>
+    <t>IRIVERSA</t>
+  </si>
+  <si>
+    <t>JUNBALTI</t>
+  </si>
+  <si>
+    <t>JUNBREVI</t>
+  </si>
+  <si>
+    <t>Juncus Sp.</t>
+  </si>
+  <si>
+    <t>LEEORYZO</t>
+  </si>
+  <si>
+    <t>LEMMINOR</t>
+  </si>
+  <si>
+    <t>LYCAMERI</t>
+  </si>
+  <si>
+    <t>LYSTHRYS</t>
+  </si>
+  <si>
+    <t>Lythrum Sp</t>
+  </si>
+  <si>
+    <t>LYTSALIC</t>
+  </si>
+  <si>
+    <t>Myriophyllum sp</t>
+  </si>
+  <si>
+    <t>MYRSIBI</t>
+  </si>
+  <si>
+    <t>MYRSPIC</t>
+  </si>
+  <si>
+    <t>NAJFLEXI</t>
+  </si>
+  <si>
+    <t>Nitella spp.</t>
+  </si>
+  <si>
+    <t>NUPLUTE</t>
+  </si>
+  <si>
+    <t>NYMODOR</t>
+  </si>
+  <si>
+    <t>PHRAUSTR</t>
+  </si>
+  <si>
+    <t>PERAMPHI</t>
+  </si>
+  <si>
+    <t>POLYGONUM SP</t>
+  </si>
+  <si>
+    <t>PONCORD</t>
+  </si>
+  <si>
+    <t>POTFOLI</t>
+  </si>
+  <si>
+    <t>POTGRAMI</t>
+  </si>
+  <si>
+    <t>POTNATA</t>
+  </si>
+  <si>
+    <t>POTPRAE</t>
+  </si>
+  <si>
+    <t>POTRICH</t>
+  </si>
+  <si>
+    <t>POTZOST</t>
+  </si>
+  <si>
+    <t>Potamogeton sp.</t>
+  </si>
+  <si>
+    <t>Rosa Sp</t>
+  </si>
+  <si>
+    <t>Sagittaria sp.</t>
+  </si>
+  <si>
+    <t>SAGCUNE</t>
+  </si>
+  <si>
+    <t>SAGLATIF</t>
+  </si>
+  <si>
+    <t>SCHPUNGE</t>
+  </si>
+  <si>
+    <t>SCHTABER</t>
+  </si>
+  <si>
+    <t>SCIACUTU</t>
+  </si>
+  <si>
+    <t>Solonaceae Sp.(%)</t>
+  </si>
+  <si>
+    <t>SPARGANIUM SP</t>
+  </si>
+  <si>
+    <t>SPAEMER</t>
+  </si>
+  <si>
+    <t>SPAEURY</t>
+  </si>
+  <si>
+    <t>SPIPOLY</t>
+  </si>
+  <si>
+    <t>STUPECT</t>
+  </si>
+  <si>
+    <t>THEPALUS</t>
+  </si>
+  <si>
+    <t>Typha sp.</t>
+  </si>
+  <si>
+    <t>UTRGIBBA</t>
+  </si>
+  <si>
+    <t>UTRINTER</t>
+  </si>
+  <si>
+    <t>UTRMINO</t>
+  </si>
+  <si>
+    <t>UTRVULGA</t>
+  </si>
+  <si>
+    <t>VALAMER</t>
+  </si>
+  <si>
+    <t>Vicia Sp</t>
+  </si>
+  <si>
+    <t>ZIZPALUS</t>
+  </si>
+  <si>
+    <t>Annual/Perrenial/Biennial/Longevity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -862,55 +1134,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1220,1851 +1462,2192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4654E3-79EB-4357-9722-EB0DD5F4D485}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D89">
+    <sortCondition ref="D2:D89"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5EF0C5-AF59-48A0-9F99-73D6A217248A}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="2"/>
-    <col min="2" max="2" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="52.5703125" style="2"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="8">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="8">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G14" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="8">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G32" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="3">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G54" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="3">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="8">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="8">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="8">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="8">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="8">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="8">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="8">
-        <v>7</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="8">
-        <v>6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="8">
-        <v>6</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="8">
-        <v>8</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="8">
-        <v>4</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="8">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="8">
-        <v>8</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="8">
-        <v>5</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="8">
-        <v>5</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="8">
-        <v>5</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="8">
-        <v>5</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="8">
-        <v>6</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="8">
-        <v>4</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="8">
-        <v>5</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="8">
-        <v>6</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="8">
-        <v>6</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="8">
-        <v>5</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="8">
-        <v>6</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="8">
-        <v>3</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="8">
-        <v>8</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="8">
-        <v>10</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="8">
-        <v>6</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="8">
-        <v>7</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="8">
-        <v>8</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A66230F-E587-418C-A2AD-9BC64E77CEC2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>